--- a/src/main/java/lomt/pearson/fileupload/english/gse/reingestion/GSERe-ingestion.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/english/gse/reingestion/GSERe-ingestion.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\english\gse\ingestion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" tabRatio="442" activeTab="1"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="176">
   <si>
     <t>To be populated - ignored by the import</t>
   </si>
@@ -254,9 +259,6 @@
     <t>ad | advertise | agency | brochure | leaflet</t>
   </si>
   <si>
-    <t>GLSI6666B0</t>
-  </si>
-  <si>
     <t>GLSI2222C0</t>
   </si>
   <si>
@@ -296,9 +298,6 @@
     <t>Academic Text Strategies&gt;Skimming for main idea/gist|Academic strategies&gt;Summarising|Academic Text Strategies&gt;Prediction</t>
   </si>
   <si>
-    <t>GLSI6666A0</t>
-  </si>
-  <si>
     <t>Can respond to ideas and suggestions in informal discussions UPDATE 24</t>
   </si>
   <si>
@@ -338,9 +337,6 @@
     <t>Source Descriptor updated</t>
   </si>
   <si>
-    <t>GLGR0027</t>
-  </si>
-  <si>
     <t>GLGR</t>
   </si>
   <si>
@@ -419,7 +415,112 @@
     <t>GLSI16099C0</t>
   </si>
   <si>
-    <t>Can respond to ideas and suggestions in informal discussions UPDATE 24 UPDATED-284</t>
+    <t>GLSI16098C0</t>
+  </si>
+  <si>
+    <t>GLSI6666D0</t>
+  </si>
+  <si>
+    <t>GLSI6666Q0</t>
+  </si>
+  <si>
+    <t>GLGR0029</t>
+  </si>
+  <si>
+    <t>(E)</t>
+  </si>
+  <si>
+    <t>(EA)</t>
+  </si>
+  <si>
+    <t>GLSI0219c|98765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_01,batch_02 </t>
+  </si>
+  <si>
+    <t>Can respond to ideas and suggestions in informal discussions UPDATE 29 Jan</t>
+  </si>
+  <si>
+    <t>A2+ (36-42)</t>
+  </si>
+  <si>
+    <t>Forms of communication&gt;Conversations and discussions|Language functions&gt;Talking/writing about the future, plans and intentions</t>
+  </si>
+  <si>
+    <t>Working in teams&gt;Planning and problem solving|Discussions&gt;Take part in business discussions</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Source Descriptor updated|SD-2|SD-3</t>
+  </si>
+  <si>
+    <t>source !@#test123</t>
+  </si>
+  <si>
+    <t>YLLA0273</t>
+  </si>
+  <si>
+    <t>YL</t>
+  </si>
+  <si>
+    <t>YL_B6</t>
+  </si>
+  <si>
+    <t>Can recognise the use of common linking words/phrases (e.g. 'firstly', 'also') to list similar ideas in simple talks on familiar topics.</t>
+  </si>
+  <si>
+    <t>Can recognise the use of common linking words/phrases to list similar ideas in simple talks on familiar topics (e.g. firstly, on top of that), with prompts.</t>
+  </si>
+  <si>
+    <t>adapted from another LO</t>
+  </si>
+  <si>
+    <t>79566;ABCDF1</t>
+  </si>
+  <si>
+    <t>GR_B1,GR_02,GR_03</t>
+  </si>
+  <si>
+    <t>Can link clauses and sentences with a range of basic connectors 29 Jan.</t>
+  </si>
+  <si>
+    <t>Modal verb&gt;Ability|Modal verb&gt;Requests, offers and permission|Verb&gt;Tense</t>
+  </si>
+  <si>
+    <t>70271|QWER123|007GHJK</t>
+  </si>
+  <si>
+    <t>Can use language related to adverts and brands 29 Jan</t>
+  </si>
+  <si>
+    <t>43-58</t>
+  </si>
+  <si>
+    <t>GLSI3181k1</t>
+  </si>
+  <si>
+    <t>GLSI3181k2</t>
+  </si>
+  <si>
+    <t>YLLA01k3</t>
+  </si>
+  <si>
+    <t>GLGR051k4</t>
+  </si>
+  <si>
+    <t>GLGR051k5</t>
+  </si>
+  <si>
+    <t>GLVC561k6</t>
+  </si>
+  <si>
+    <t>GLVC561k7</t>
+  </si>
+  <si>
+    <t>Can respond to ideas and suggestions in informal discussions UPDATE 24 UPDATED-120</t>
   </si>
   <si>
     <t>(C)</t>
@@ -428,22 +529,22 @@
     <t>10</t>
   </si>
   <si>
-    <t>Can express likes and dislikes about things they have or do in a very limited way UPDATE 24. UPDATED-284</t>
-  </si>
-  <si>
-    <t>Can express likes and dislikes about things they have or do in a very limited way UPDATE 24. UPDATED-284 UPDATED-284</t>
+    <t>Can express likes and dislikes about things they have or do in a very limited way UPDATE 24. UPDATED-120</t>
+  </si>
+  <si>
+    <t>Can express likes and dislikes about things they have or do in a very limited way UPDATE 24. UPDATED-120 UPDATED-120</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>GLLA6666X1</t>
+    <t>GLLA6666X6</t>
   </si>
   <si>
     <t>DB1-SI-5|125643</t>
   </si>
   <si>
-    <t>Can express likes and dislikes about things they have or do in a very limited way 334</t>
+    <t>Can express likes and dislikes about things they have or do in a very limited way 148</t>
   </si>
   <si>
     <t>27</t>
@@ -452,9 +553,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -502,13 +603,37 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -535,10 +660,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -582,9 +710,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -854,14 +996,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -885,11 +1027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -960,7 +1102,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>14</v>
@@ -1003,7 +1145,7 @@
     <row r="2" spans="1:27" ht="27" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" s="14" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>26</v>
@@ -1019,13 +1161,13 @@
         <v>29</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>56</v>
@@ -1037,7 +1179,7 @@
         <v>63</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -1050,7 +1192,7 @@
       </c>
       <c r="V2" s="8"/>
       <c r="W2" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
@@ -1062,7 +1204,7 @@
     <row r="3" spans="1:27" ht="27" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="14" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>35</v>
@@ -1080,10 +1222,10 @@
         <v>29</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="J3" s="8">
         <v>27</v>
@@ -1092,13 +1234,13 @@
         <v>39</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -1109,7 +1251,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
@@ -1119,7 +1261,7 @@
     <row r="4" spans="1:27" ht="27" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
@@ -1135,7 +1277,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>38</v>
@@ -1153,7 +1295,7 @@
         <v>45</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -1164,7 +1306,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X4" s="8" t="s">
         <v>41</v>
@@ -1178,7 +1320,7 @@
     <row r="5" spans="1:27" ht="27" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
@@ -1192,7 +1334,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>38</v>
@@ -1210,7 +1352,7 @@
         <v>47</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1237,7 +1379,7 @@
     <row r="6" spans="1:27" ht="27" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>51</v>
@@ -1255,7 +1397,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>38</v>
@@ -1273,7 +1415,7 @@
         <v>54</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1284,7 +1426,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X6" s="8" t="s">
         <v>55</v>
@@ -1298,7 +1440,7 @@
     <row r="7" spans="1:27" ht="27" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
@@ -1312,7 +1454,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>38</v>
@@ -1330,7 +1472,7 @@
         <v>60</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1355,7 +1497,7 @@
     <row r="8" spans="1:27" ht="27" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>62</v>
@@ -1373,7 +1515,7 @@
         <v>29</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>38</v>
@@ -1391,7 +1533,7 @@
         <v>63</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1414,7 +1556,7 @@
     <row r="9" spans="1:27" ht="27" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
@@ -1430,7 +1572,7 @@
         <v>29</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>38</v>
@@ -1471,7 +1613,7 @@
     <row r="10" spans="1:27" ht="27" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
@@ -1487,7 +1629,7 @@
         <v>37</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>38</v>
@@ -1526,7 +1668,7 @@
     <row r="11" spans="1:27" ht="27" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
@@ -1542,7 +1684,7 @@
         <v>70</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>38</v>
@@ -1581,7 +1723,7 @@
     <row r="12" spans="1:27" ht="27" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
@@ -1597,7 +1739,7 @@
         <v>70</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>38</v>
@@ -1635,29 +1777,29 @@
     </row>
     <row r="13" spans="1:27" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="8" t="s">
-        <v>107</v>
+      <c r="B13" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="C13" s="8">
         <v>79566</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="J13" s="8">
         <v>32</v>
@@ -1671,19 +1813,19 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T13" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="U13" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
@@ -1696,10 +1838,10 @@
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -1714,13 +1856,13 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="I14" t="s">
         <v>38</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="K14" t="s">
         <v>39</v>
@@ -1732,13 +1874,13 @@
         <v>63</v>
       </c>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C15" s="8">
         <v>70271</v>
@@ -1754,7 +1896,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>38</v>
@@ -1789,7 +1931,7 @@
     <row r="16" spans="1:27" ht="27" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
@@ -1803,7 +1945,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>38</v>
@@ -1821,7 +1963,7 @@
         <v>47</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1848,7 +1990,7 @@
     <row r="17" spans="1:27" ht="27" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
@@ -1862,7 +2004,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>38</v>
@@ -1880,7 +2022,7 @@
         <v>47</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -1907,7 +2049,7 @@
     <row r="18" spans="1:27" ht="27" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
@@ -1921,7 +2063,7 @@
         <v>29</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>38</v>
@@ -1939,7 +2081,7 @@
         <v>47</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1966,7 +2108,7 @@
     <row r="19" spans="1:27" ht="27" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
@@ -1980,7 +2122,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>38</v>
@@ -1998,7 +2140,7 @@
         <v>47</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2025,7 +2167,7 @@
     <row r="20" spans="1:27" ht="27" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
@@ -2036,10 +2178,10 @@
         <v>28</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>38</v>
@@ -2057,7 +2199,7 @@
         <v>47</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -2084,7 +2226,7 @@
     <row r="21" spans="1:27" ht="27" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
@@ -2095,10 +2237,10 @@
         <v>28</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>38</v>
@@ -2116,7 +2258,7 @@
         <v>47</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2143,7 +2285,7 @@
     <row r="22" spans="1:27" ht="27" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
@@ -2157,7 +2299,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>38</v>
@@ -2175,7 +2317,7 @@
         <v>47</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2202,7 +2344,7 @@
     <row r="23" spans="1:27" ht="27" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
@@ -2216,7 +2358,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>38</v>
@@ -2234,7 +2376,7 @@
         <v>47</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -2261,7 +2403,7 @@
     <row r="24" spans="1:27" ht="27" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
@@ -2275,7 +2417,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>38</v>
@@ -2293,7 +2435,7 @@
         <v>47</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2317,6 +2459,433 @@
       <c r="Z24" s="8"/>
       <c r="AA24" s="3"/>
     </row>
+    <row r="25" spans="1:27" ht="27" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="8">
+        <v>32</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="3"/>
+    </row>
+    <row r="26" spans="1:27" ht="27" customHeight="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="8">
+        <v>55</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W26" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="X26" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA26" s="3"/>
+    </row>
+    <row r="27" spans="1:27" ht="27" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="3"/>
+    </row>
+    <row r="28" spans="1:27" customFormat="1" ht="27" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="4">
+        <v>44</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:27" s="11" customFormat="1" ht="27" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" s="8">
+        <v>32</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="R29" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W29" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="X29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA29" s="12"/>
+    </row>
+    <row r="30" spans="1:27" s="11" customFormat="1" ht="27" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="12"/>
+    </row>
+    <row r="31" spans="1:27" s="11" customFormat="1" ht="27" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA31" s="12"/>
+    </row>
+    <row r="32" spans="1:27" s="11" customFormat="1" ht="27" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
